--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/79_Yalova_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/79_Yalova_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F141D34-C460-4FBC-AC72-57FA7F3728CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A35B6F80-5974-45B5-9A8A-17DB592B5E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{DA7B53A9-7FEE-48EB-A3BE-99F064FB88DD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{03295463-E9AC-4527-9B76-EBAEBE5E94CE}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="113" r:id="rId1"/>
@@ -934,14 +934,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{67ADDCFA-3C3D-4128-9339-3E6F6612928B}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{FD404863-9FB7-4EB8-AA45-78540607B413}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{858EFAAC-F810-48DD-9FFC-5910A8B40576}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{72B9C0F8-BBF6-4557-AD1B-CFB9D1BA82B4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{791F96B4-7CE8-468D-9999-21650B66EF43}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{67630145-627E-4733-B479-35337C877D8E}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{A463E2F3-3A63-4BA3-8235-E6CF948DCBA7}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{BADADFC8-A37B-462A-BC63-EF29246F6C30}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{74A5B593-4C23-4743-8F45-A5AF903C07AC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7516CE68-39C2-46C4-B4B0-7B31F4375F59}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{B8089DD4-7E74-4778-9D18-277EA357CEAB}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{9BDA9464-D120-4725-8609-23B9DCC66F8A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{203E41F1-F974-40B2-B0C0-C01C62C21F0E}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{EE392837-FBE1-4517-A044-7CA7809B493B}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{5309248A-D99B-47A8-B07E-D1655C076A78}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{BFC8D7CE-F0C9-490E-9617-2B53BD6539BD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1311,7 +1311,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D048BD3-B133-40DF-8ABE-35AA081767BA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27D00D48-189D-41C1-8796-6C6290297706}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2590,18 +2590,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7F578F30-E796-44BA-B7EC-EA49C737CB09}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E0A248FF-4018-4874-BF48-4792A3002268}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{87360FDE-D4B7-4FA2-B4DA-ECBD80364C4F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{77FC8558-A936-4506-A762-BBD3ECF8D269}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3C45ED4D-A79F-44F4-B8C8-A4E82211D0E3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B3A4ED8D-37DA-42B8-9A2B-93BB5598A1F0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4CD3D357-4DBA-4864-8BA3-2583A1E56D04}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E33537D4-70FA-421B-A972-F16C3032A70B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D160D724-9BDB-4154-BCF8-BB775CC83315}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E12E434F-85DA-4281-8E73-E3261F5B9FC0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EFF7BE57-3F9D-4CBA-B22D-8E3C307BAE94}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B48B55D8-881C-448C-A3F4-DFD94AC60DD7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3DD65AFD-F035-4136-B734-3F99A3C169E7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{92CD8C30-DA84-483C-9690-C933AA79429A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D313C249-420F-4771-8AF7-1FA5365341DE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9B9337E1-CF6E-4631-9D88-DEC8EA7DCFAA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{037617E1-5E45-413B-8A20-5675E4F4A598}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{256559E8-B8A1-46D6-9AB8-3A0FB0D75256}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DB5CE4A1-4303-424A-9DF7-A86C8BB8FACB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14B051DF-CC0E-4746-93F0-7C26CA764E11}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{80C01EFA-FC9E-446D-8AD5-D336D5124680}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3237F3BA-26A0-41E0-9E7B-D80A0B0C1F87}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5F9FD229-5222-445A-8E62-DF50AB741575}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{023822DA-C2DB-46CD-A685-F346BD843F9C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2614,7 +2614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D051A59-F1F7-40A7-AAFC-E396797CB8D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441E083A-D49E-43CC-96D5-3F6A44410E81}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3929,18 +3929,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A439280A-CAA5-441E-A4B8-627D9CD4CF98}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6578CF91-6642-4499-8894-5282BDA0AA4C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{269109BF-5C90-46B2-9C1F-685DD2E3944D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E4876616-CC0E-4146-9856-7F9EB6746905}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3B376F6C-6F03-4581-8C08-B825A5A91F5F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{32D6914B-F33C-426F-8176-1468AA8A8A37}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F5937574-DB0F-453F-8975-47B1C5956707}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49FC25D4-26CC-4358-9E98-E4D4099DE7E0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5BD3DE8-B1E6-45AF-9D3A-B1FDD201F36D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7A807723-696F-4ADF-B2E8-647641C74751}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6750F3EC-16A9-4673-8DE2-4F9F81563FF6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1F73A245-BDB1-4E75-B310-A772A6D1416F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2314898C-FC0C-486D-A9C6-EF152549C3C4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{576FAA37-D8DD-4416-9DD0-73424E6545BE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F98CA101-F4D1-492A-8DD4-ED488C64C6C4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9C1ED545-F545-46DC-96B8-831C236BE653}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{942E08D6-1479-4594-8608-A22AB8AB3499}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{728AE72A-3533-4C2D-8E2F-FC812751D4DE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{08D4D434-EC09-4ACA-BDE7-8ED590D081CE}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5ADD46F3-5CE6-4B2E-AE88-0C8EA7C2687D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2CDBBE61-4732-4FD9-A7BB-1D6BE167BA35}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{51B5BDD5-A5A8-4746-9E33-F2BCFF428953}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{84BD90A6-2B94-41FF-B347-F9C3EDDB3E7A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A87C0B0-0B2D-46B6-B104-FE0EA218F1A5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3953,7 +3953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE27938-D8DF-44C3-97BF-557786D980DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4454C2C7-5C67-46C6-B7B8-8226B5DCAFB3}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5264,18 +5264,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D1846D62-F711-4D41-B13E-79FF8834300F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{62419BC9-E9D7-4CF3-84B9-473E63E0B90C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2D90DE0C-F8A2-4D30-AF0C-4A21B2EC333B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BDBA82CB-E53A-4D95-90C0-9EE1636396C2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8625EBE-214D-4E49-8B6D-41E3B5DF6189}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E8AAA7A6-B0E8-45F1-9AD7-DC16948F86F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C315525A-DFA1-4B4D-B9BA-AE94C3133E5F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D431D63-C97F-48A5-944B-25C76D19A8FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D35FC07C-586A-47B0-BEB7-D2897BD10E40}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A3757A7C-F82F-4737-9D22-B4E7A1D9DDF4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1F65734-CDDE-4D03-81A9-10738074011E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A9D6FEDC-D818-47AB-8811-8FBE2A1ACA2B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{193DCAB5-EA04-4DFA-AB24-5E08569302CC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D8045A07-CFF9-488C-9205-602A498EC948}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F04C24FC-3486-443E-AF40-3BD250CAB632}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B5FDAB6D-7C9B-4A4F-9B21-93C2E3B0A69F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61FB8638-E4F1-464B-8068-DD3AFB2BEB23}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FDBE2AFF-9DAC-4298-910A-AF1C9D015791}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2606ECEB-9385-4DC8-B5F1-8634EF4A58B4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DC6E84E4-3CB2-4BFE-AAFE-93E8D430C2A0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{989D9C8D-1AC0-4D88-85BB-7BFA2F193873}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{2B263FB2-A367-4FBB-B125-94AE438E449E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9D9E4C7D-3355-4965-B135-5922F814CA87}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{678F4A4F-BC1C-4D0F-9B3D-2943EDF1C256}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5288,7 +5288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{599C0B8A-4E48-475D-84AE-1D8911A019DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B93AEF9-EA4B-48AC-BEA5-383C75B9DD68}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6589,18 +6589,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F89AC9E8-445F-4EAD-B201-083FF944B0FD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AFFA28B-FF31-4A63-BF3C-85B260DC1708}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F769E53F-0AE7-449E-BBBC-56B89036B54C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{057657E8-AB3E-49BF-97B9-1D868EB58E2F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{21D6EE07-43E2-4AF8-86A8-CABC47847E51}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1A58A5AE-2861-4EA4-AB92-3EDA3FFD3DBA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8D90AB58-F14C-43A4-8F4D-9A6AB4D87A50}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B7783329-2FC1-4425-BC65-BB45E4A1D4A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{BACF7FC2-425A-45ED-89AF-174DEBB91F24}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A12DD759-4331-402F-97D0-ADF72E83596F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4A81E8E0-AA45-4248-8FE4-C3C0BE9FF4BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AA98B2C-505B-4D10-AD9B-D4049C7C3690}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62F5145F-34F1-4753-B242-ACD7A84823B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9F933242-3CE7-411B-AB44-96697C363A83}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{111F3277-92F4-4842-9F0A-C8DB7819ADD0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7A6355F1-AC22-4FC3-ACCA-A2A2D2B12551}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECF607F4-AB36-439E-955D-B8021EC84ED4}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{43C50918-8C37-4E9A-A7D1-C2377028864A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F2C2820B-79C7-4FDC-81D9-7F4D7F1C4FA9}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9A06571F-5FD9-4B89-9B7E-A0DE18FFAA03}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{76C1F340-D975-485F-B853-7D4E20D6B777}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D64CC343-8500-4D03-8A1B-47E37A15BA92}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{786A9871-6F62-4FFF-84E7-A7E14675651D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C52468E4-3EF2-4897-852D-95E615C86342}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6613,7 +6613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926AE7AB-C5F7-4095-9F95-6C3B8777ACCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4BF1AE-568B-4A57-A239-1D786FA2690E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7894,18 +7894,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0589129F-FC7E-4A0F-941A-CE60F17146A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BC96AB46-EFAA-4FB1-8E87-911868658772}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D9ED95DB-9A52-4B59-B4A8-AC72D5641EC5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F06E836B-7D20-46DA-88BF-8B01404CBF94}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6AAFFE7F-3317-4E67-A38B-EA69B8603203}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{BB629CE0-8936-4A55-A296-EF2EAFF2B971}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2A70B69E-DBB5-414B-81BB-3667299ABD49}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8179622B-3ADB-4C53-A57A-AC0F7BB1BA81}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2BD53B4-F1C3-45F4-A600-B685CA23599A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1AD5C035-668B-402E-B828-903C6DAB4E85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D60461E7-1565-475C-8421-ADDAAC7BDFF6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{03087B9A-A8F0-42AF-AFB6-4E8D3F49AE15}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{16E9D88F-A7BE-45BE-90AF-EF83853408C2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{753B5618-D928-4B1B-9AEA-7294C796E753}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8F400C08-1370-4382-8FBA-F8B88530AAFA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E7FFC029-FFCD-40A7-B6FC-C2E6407D0087}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6206C4BA-B08C-4CF1-821A-38953B59F6FC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{33010479-000B-4D9A-AA6F-0AEA43BF6AC6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F9411493-0BC2-49EB-B489-91A16816D9BB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{94FE8C48-6D0B-4F1C-8042-5AEF48C09644}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{58DCED27-C77C-4756-A292-7C7A5E7EF5C1}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B85C5B87-8A3E-4975-8259-4A71C49B5F0C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E08EB48-6D0F-483B-926A-F2653FD5D970}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EB398AF4-446F-419A-8730-907821A10085}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7918,7 +7918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0AFCB7-6F53-4838-936B-13B5BA3ACEB3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F675CC6-5FAE-47A4-B05F-02D1D4E31691}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9199,18 +9199,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1D02BB81-4DB3-4E47-81C6-7D9AA8FB52E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6AC49634-5188-4CB9-A4CE-A7D9FA1F9BEC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7DD91A30-6C85-4548-9694-2BF771696E44}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8C17F829-7F61-44B5-BAAD-DE5F3CA9ECCF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71ED67E0-D584-4333-85C5-1B9FB9F61195}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{561FDFD9-492B-4BF4-B875-DAFFA6E1D0BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A370E92-574E-48A4-9CCB-5076D0029840}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A4780DAC-A06A-4FA2-9FF1-716B97BBCD40}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B05C4B8C-CAE4-4D4E-B9A9-442CF01590E1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{986EC599-6B86-4C7E-BACF-5E1ED69826EB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E95F5DA7-6C6D-4935-85F9-8E129AFCCAE9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B078966F-0B7D-4E7C-BC7B-41E96DF985AB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D5494EF4-FE27-420D-A404-D9A87C76B75A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0555D995-5FD9-4B0D-BCE1-59855F1171C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F720F851-AC5A-4042-AD47-77CD2D1C851D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A3CC1773-05A8-4398-B596-78B90D4CA545}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71236609-EA11-45A7-B28A-CA6EF461F4ED}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{77336A61-1FC3-45D4-9CE2-9EAD722DC86D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5FC4A411-82AE-4C35-B8CD-3F6F87683FE8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3C4527AE-1BD3-46E4-A663-EB9DC511F416}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{881B8BA7-3C6F-4794-8C91-546A2EE4219B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E21F6613-369A-473C-A2E9-307C35F3C1DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B931ADAB-B804-4D3F-AE5C-22E2FD035E15}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{66E5FE85-CD71-482B-ACDE-9B8B6F0DB853}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9223,7 +9223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FAC0C42-09A8-4E69-B415-C94E584FDD2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E56792E-1733-4829-BEAB-A846CB250AA4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10500,18 +10500,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7336D3B2-981D-46B5-8FE2-0458098105E6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{05FACD79-0B32-47CD-A26F-31B8C6E3C1FA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C641CE37-A47E-4071-8007-036E808DD372}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9E51A791-8B2F-4E5E-9EF6-26FDFF778ED4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{54EA52A6-1316-448C-983A-DE48139FE26D}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{CE23439F-E531-4DD9-BCEC-C48C05C77940}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1F11525F-A349-406E-B448-B06FC88DBFF8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A220ABC2-5585-4F71-B3FE-7C253A65F652}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{356CE33A-8B20-4630-B96B-9BD368FD3DD0}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{40EE9598-1147-4FE3-BFB4-D4E0E3D402F9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{354F5515-2F34-4B5C-8DA2-EE07FEC4D8BE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4099F389-B9C2-4035-B5B1-6BCC7631E938}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E76B6436-BA25-4C5E-AA26-110BEDAF79EF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7EBBDF70-2272-48BF-95B0-12DEDF5674AD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BCB4066D-4D50-439C-99E1-526C49E2F8F8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13EDA9E0-2FD4-413D-A776-75A2808D7800}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0F6E1C8E-F95A-401A-AB84-363BF0E29AA2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{A1C7A073-89D0-4AE6-8914-6BDE00EF7E24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8304C369-4DD5-4C5F-9448-5F2C6E645772}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D4EC67D6-F3E3-47BE-B75F-00BBD03DF35E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CDD15E53-B76D-43B8-BA12-F19F1E25B43A}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{8BFDB80C-42DB-4A90-B87F-E3F8D4E366CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{729A3E3C-1238-4922-916B-6BA1A73A2D7F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{199D5629-94C5-4EEB-85E0-45CC2B6B2CC5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10524,7 +10524,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23FFD496-6FDD-4CC8-95CC-76BD9D5AC486}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41AB1961-8738-4174-933D-59ECC7584E33}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11801,18 +11801,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA3AD945-4AA2-47DF-9B78-A7ECB241543D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEAFFB09-A120-41B1-9BCD-DF648E25C892}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{35E7EACE-43CD-4740-BB03-CF4302E850C5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8719057B-B070-49F0-BD22-7452D362643B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB51006B-7BE5-4ED2-8986-E01D7877B422}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C828ED1F-1801-47B6-990E-B57D2B70094F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{47F25D5B-652F-41C9-9EA2-D1A9C23F4163}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1E1146F7-97FD-410F-A638-BA63FED55B92}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AFB859F8-4281-4D79-8806-A0AB9444AFA2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{7EDA2D6C-3A2C-455A-B402-CEAB216D20F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{739EFCCE-79AC-4045-9568-144727197BDD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9C7B6D3D-0256-4CC8-ADDF-0BA114BD2F27}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D4311FE1-956F-4C18-9FFF-F91443038444}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{96A34046-EEB2-477D-9243-C6A3733FE50D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1AE0E0F7-1F5B-49D7-BBD2-4BCCEB687883}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{81277C1B-F09E-4C7F-8777-D04D2551A658}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4C839992-0755-4112-AEDB-A390FA364219}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0BCF887B-A8FE-4ADB-BACF-8265C52DEA24}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7047D63F-1E0C-483A-A3F9-6BC5A0C2C454}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A60B293F-73E0-407E-AC5D-4921C4EDA4B7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B8BB07B9-CD3F-4BAB-8844-6D2024C7C7D9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{97422F7D-95E0-4890-AE8B-EB7A393369B2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{23AF9F59-798B-4683-90E1-6B0241ABAA8D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8F62F8C5-E3E7-4044-AF6A-CE6F2DAAF478}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11825,7 +11825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71ABAD0E-5255-4ADA-8EDC-7D651BB6A411}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C58E27D-3141-492B-9FD6-11507FEF59E6}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13094,18 +13094,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1078A7F7-5DF4-4402-B44A-0E86E7B382DC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AAA292A7-9B26-473F-93E8-B73654CC1CED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE81CDD9-8916-45E6-8EED-F02914B8F9A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC870FD0-50D5-46A3-B0B0-2AAE6D13A1D6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DB7463D3-6ACF-41D7-A466-54B0A0F9BAD0}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{496A3196-A23D-49EF-9135-CA148B3093BF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A81ACB7C-2659-40CC-A7FF-A7D88A7CA635}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9A23A0B-4A09-4998-947D-CA28E3F25A10}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9F9CED11-805D-4E65-A24A-405381C949EB}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E2CDCCB6-1F8A-46A1-B02B-DF0ABB4880C6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A2722446-F10E-4B1F-B4C6-9CB79C85679F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5069BB3D-9A46-4C68-80FA-BF26252A5189}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{35474D7B-9CAC-49C2-83AF-CA55CAC9A159}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{279418CE-0180-4D7E-B409-191056963C68}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B0DD9BB3-0690-4369-BDB4-4AF9DC6188F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0705EF61-C715-4E5B-93A6-6AEE7CC42FD9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9622F6FD-8D7A-4CF5-B400-A6D6C3CC4550}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{250DFA41-6FB9-402A-94ED-CBA21A6D561C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B1E81EF5-E437-4735-BB60-48BD04FA0D71}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C9246367-7139-47AB-840A-528B21ED3EC8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9B2E4588-CD33-43E2-9A14-64953FAFCBD7}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{1F6F1854-F70B-4110-A379-9ED4E8D6A089}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ACFDB919-BCA3-4226-A4BE-2B5BB524F3F2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BF7BA6CA-6D80-40BE-833B-5D731979CAA7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13118,7 +13118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021C0680-926B-4903-B79A-F31A5A079805}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{485C0FA7-D7F5-4078-86BD-4C55A86AF903}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14433,18 +14433,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{07A73D50-9BCA-47F1-A7FC-C77630419CE8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FD0E258-641F-42CA-B8BE-8FC35AE2CBB6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{572A7BD9-C1FB-472A-8BC5-B2A2F1A1A77C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1DC09CA0-56A4-4F2F-9A22-EE4330E18A08}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5AD41EF4-0E29-41BA-B36A-FACCA6F9C79F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{85CAE63F-49EF-4486-8DF2-FF78E45826A5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{351337F4-DF31-42F8-82C6-1B90AD22845D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{032CF0F1-C07F-443F-B3C6-5E1EB84610C2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1FD6F177-074A-48FA-80A2-11DB6CE937A7}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{4A18B611-DFDF-4E5A-94D8-38910B5CAC03}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1509C3D6-F215-4853-983F-CB7E006C138B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2D492D27-91A3-4C0F-AC5B-274E06B0794A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCA36053-007C-4951-B9AE-C6101DD9A7D2}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{624284BA-4683-417F-9503-90376F0883D5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{39D3EF1D-EE27-4AA3-A529-7F69E5CF270A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5A9741C9-8182-4FBE-A13B-846E0DE9A0B8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B0F6603C-D791-43BB-97D0-81138B1991A3}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C72B3B86-C82A-4C30-B6F8-377BB1D801B0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3C617BC1-1391-4FF7-83A3-AAC4FEBDA8E3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FC84FA3-535E-4C4F-8645-41B3E2D8A643}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83507306-BA81-413C-BD63-8AD198990834}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{908B5F4D-9718-4370-AC3C-43541B4DE37B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{187F9F5D-5490-440F-B1FD-6219B98FF8A8}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3A2B2806-ECCE-4A74-949E-68F61E8D86D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14457,7 +14457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CCBCBF-136F-47DC-B063-1088D2B9C07F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F95CD3-999B-4AA3-9572-6C7202032BF5}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15772,18 +15772,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9F642A3-3373-4788-9D1A-FF14C46989D1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AAB6700-4EE1-46E5-9904-E8DA02A5A3E8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F52E771C-348F-4C3F-9F4C-EC886688C011}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A8540207-9BB2-4DD5-9146-655D0DC817FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A0210F41-D9BA-413A-9348-F64458D24F4B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{F29EB0DB-BF1B-4903-B738-5DF0F4541BD8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B5A5C5B-6A4D-4A7F-B189-24C449D34828}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{09BA190E-F491-4EE8-9E1B-4B3B52C52CB6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{43941E07-92D9-4FBB-98B7-D2BF0D2A53D2}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{92A53353-76C2-41AD-9BAB-800596516A99}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3AFC14F7-4C9D-4B98-941E-44680E5306FA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42947E4E-913D-4A2F-88E5-1D625EDC5FCC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D69BE449-6A40-414C-820D-895EF92B375F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{67B9D79B-BC01-42B2-85AB-4BA9C55DF818}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B2FDD2A1-9716-472B-9363-4EB6CCA9145C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{6180FB59-C3D0-493C-BAAC-A6E19C28C6BC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AB8E90C2-4D69-4C96-9E45-9D077A6AB9FC}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{B03FA7C6-BA45-4558-83F6-F23D13631A20}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BA300A9-C423-4862-9042-13A7B47BE1B7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6552FDC7-EC4A-42EC-8214-008F197A2AC1}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{AEF80AE6-8EFB-44B1-9C31-5347ADA9F73B}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C4E781A2-9C2C-4DDE-BFDD-91D7878E05C6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DBAAED04-F198-4F25-AD51-DC9947FD6AAA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3EB88BE-5E7A-4845-BD2D-61AC9CAE531C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15796,7 +15796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F543F8B4-0256-4F5A-A3F0-ED33193264CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{855EE7BB-FF2F-4669-8043-1156FC3209DA}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17111,18 +17111,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{484CC23C-9963-4D5D-8EA1-C881E68306DB}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4D55010-4762-482B-9A72-F2A19C02086C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DD18DCE0-E0F0-4C29-99A6-EF348FE223BE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{173BAFE5-6652-4ADA-8CC9-933BE1E80D57}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{62B66193-D218-48E5-96B8-7A80479D5B6F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{68BD1BF7-E139-4C29-90C7-F0F04C2C9344}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8643119E-6082-4471-86E8-FBAEBEA7C6A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0875771B-F019-449C-9320-2B6BA6576B5B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{62ECA401-7ADC-4C84-8115-677B8DF6364F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3CDAA774-2F2B-48A4-B326-00B2BC91F268}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3281CC1D-80B1-44C7-BB25-4FFD38335FF9}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3BE1BF86-D853-45E5-A5A3-B6DB68B8FBF3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9111D21C-9C27-4787-8E1B-3BACED800820}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2CF9F0B-4465-4B59-9807-CE9BD6137607}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69A5551C-5B17-4E88-88D5-C1EA51437A55}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CC6BAB71-7196-4E68-9437-3543335B2E97}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{264D74E1-6515-4521-B8F7-7C2B4902BA52}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{54944738-CB18-41D8-94FC-A7EE214E281B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A8D29D8-D018-400A-8E1D-EB08B03C5EFA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{042BF621-4884-47F8-B1A6-81106044CB30}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1D47B84A-B21A-4A3E-BBF7-4AF5FFAECB63}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{A9B89408-1019-40B7-A01A-A7F10E127A0F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{29233A97-F379-41CE-BD21-0D0E117D47AB}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F539CE8A-7E02-431F-A4DB-6A80AF9801CA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
